--- a/kovetelmenylista.xlsx
+++ b/kovetelmenylista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagytoth\Documents\repo\oprendszerek_beadando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Documents\GitHub\oprendszerek_beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020EE712-179E-45E6-9551-BF90608CF56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5C09A-EAD3-4967-95EA-EC243012E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="0" windowWidth="8900" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="-120" windowWidth="27900" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Komponens</t>
   </si>
@@ -81,9 +81,6 @@
     <t>VPN-kapcsolat távoli csatlakozás esetére a karbantartó részére</t>
   </si>
   <si>
-    <t>5 teremnek megfelelő, kiosztható alhálózat biztosítása</t>
-  </si>
-  <si>
     <t>Legyenek adottak a következő felelősségi körök: közös, hallgatók, tanárok, gazdasági</t>
   </si>
   <si>
@@ -103,6 +100,48 @@
   </si>
   <si>
     <t>A kliens egyszer letölti az emailt, és eldobja</t>
+  </si>
+  <si>
+    <t>Ha meghibásodik egy hardverelem, akkor az legyen megjavítva/cserélve.</t>
+  </si>
+  <si>
+    <t>A felelősségi köröknek megfelelően a közös mappát mindenki láthassa</t>
+  </si>
+  <si>
+    <t>A felelősségi köröknek megfelelően a hallgatók mappát csak a hallgatók láthassák</t>
+  </si>
+  <si>
+    <t>A felelősségi köröknek megfelelően a tanárok mappát csak a tanárok (igazgató is tanárként lesz regisztrálva) láthassa</t>
+  </si>
+  <si>
+    <t>A felelősségi köröknek megfelelően a gazdasági mappát csak a gazdasági csoport tagjai láthassák</t>
+  </si>
+  <si>
+    <t>Csak egy DHCP-szerver legyen, az szolgáljon ki minden címet</t>
+  </si>
+  <si>
+    <t>Ne legyen IP címütközés</t>
+  </si>
+  <si>
+    <t>Legyen fenntartva hely a statikus IP-címeknek</t>
+  </si>
+  <si>
+    <t>A nyomtató kapjon statikus IP-címet</t>
+  </si>
+  <si>
+    <t>A webszerver kapjon statikus IP-címet</t>
+  </si>
+  <si>
+    <t>3 számítógépteremnek megfelelő, kiosztható alhálózat biztosítása</t>
+  </si>
+  <si>
+    <t>A kapott IP-címtartománnyal optimálisan gazdálkodjunk</t>
+  </si>
+  <si>
+    <t>A hálózat legyen bővíthető újabb alhálózatokkal (skálázhatóság)</t>
+  </si>
+  <si>
+    <t>Internet elérhetőség biztosítása minden iskolai résztvevő számára</t>
   </si>
 </sst>
 </file>
@@ -420,19 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A19" sqref="A19:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -448,7 +487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -456,23 +495,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -480,15 +519,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -496,23 +535,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -520,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -528,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -536,15 +575,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -552,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -560,20 +599,124 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
